--- a/ДЗ_техники_тест-дизайна.xlsx
+++ b/ДЗ_техники_тест-дизайна.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marie\OneDrive\Рабочий стол\ДЗ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lord_\Documents\GitHub\qatesterNenasheva\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA91B418-EABE-4488-AC45-DAB9605BEDDB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -25,6 +26,31 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Александр Кобченко</author>
+  </authors>
+  <commentList>
+    <comment ref="B10" authorId="0" shapeId="0" xr:uid="{AF03AF6E-50EA-4904-81D9-8F0E348A04E0}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Вот прям по краешку прошла, т.к. в тест-кейсах нежелательно указывать внутреннюю кухню тестирования типа "вот класс эквивалентности такой-то, используем его". Те, кто тестирует - и так знают о чем идет речь, а те кто управляет проектом, должны только видеть что функционал покрыт таким вот набором тестов/тестовых данных</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="81">
   <si>
@@ -285,8 +311,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -324,8 +350,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,6 +384,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,7 +504,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -475,32 +524,8 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -508,9 +533,84 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -520,60 +620,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -850,14 +902,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
   <dimension ref="A2:I53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -870,26 +922,26 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="23" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
@@ -906,15 +958,15 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="15" t="s">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="9" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="1">
@@ -922,9 +974,9 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="19" t="s">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="11" t="s">
         <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -941,12 +993,12 @@
       <c r="A9" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="4" t="s">
         <v>1</v>
       </c>
@@ -955,174 +1007,174 @@
       <c r="A10" s="6">
         <v>1</v>
       </c>
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
+      <c r="C10" s="43"/>
+      <c r="D10" s="43"/>
+      <c r="E10" s="43"/>
       <c r="F10" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
     </row>
     <row r="12" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+      <c r="A12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14" s="16" t="s">
+      <c r="B14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
     </row>
     <row r="15" spans="1:6" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>2</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="19"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
-        <v>1</v>
-      </c>
-      <c r="B17" s="31" t="s">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
     </row>
     <row r="18" spans="1:6" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="42">
+      <c r="A18" s="18">
         <v>2</v>
       </c>
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="27" t="s">
+      <c r="C18" s="15"/>
+      <c r="D18" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>2</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
       <c r="F25" s="4" t="s">
         <v>1</v>
       </c>
@@ -1131,158 +1183,158 @@
       <c r="A26" s="6">
         <v>1</v>
       </c>
-      <c r="B26" s="12" t="s">
+      <c r="B26" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="20" t="s">
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
     </row>
     <row r="28" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
+      <c r="A28" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="22"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B29" s="14"/>
-      <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="14"/>
-      <c r="F29" s="14"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="20"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="42">
-        <v>1</v>
-      </c>
-      <c r="B30" s="16" t="s">
+      <c r="A30" s="18">
+        <v>1</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="16"/>
-      <c r="D30" s="16"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
     </row>
     <row r="31" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="42">
+      <c r="A31" s="18">
         <v>2</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19"/>
+      <c r="E31" s="19"/>
+      <c r="F31" s="19"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="14"/>
+      <c r="B32" s="20"/>
       <c r="C32" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="42">
-        <v>1</v>
-      </c>
-      <c r="B33" s="31" t="s">
+      <c r="A33" s="18">
+        <v>1</v>
+      </c>
+      <c r="B33" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C33" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
+      <c r="E33" s="19"/>
+      <c r="F33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="42">
+      <c r="A34" s="18">
         <v>2</v>
       </c>
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="31"/>
-      <c r="D34" s="27" t="s">
+      <c r="C34" s="15"/>
+      <c r="D34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="27"/>
-      <c r="F34" s="27"/>
+      <c r="E34" s="19"/>
+      <c r="F34" s="19"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="29"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="30"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B36" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>2</v>
       </c>
-      <c r="B37" s="26" t="s">
+      <c r="B37" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="26"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
       <c r="F41" s="4" t="s">
         <v>1</v>
       </c>
@@ -1291,198 +1343,165 @@
       <c r="A42" s="6">
         <v>1</v>
       </c>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="20" t="s">
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="A44" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="22"/>
-      <c r="C44" s="22"/>
-      <c r="D44" s="22"/>
-      <c r="E44" s="22"/>
-      <c r="F44" s="22"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="28"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="14" t="s">
+      <c r="A45" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="14"/>
-      <c r="C45" s="14"/>
-      <c r="D45" s="14"/>
-      <c r="E45" s="14"/>
-      <c r="F45" s="14"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="42">
-        <v>1</v>
-      </c>
-      <c r="B46" s="16" t="s">
+      <c r="A46" s="18">
+        <v>1</v>
+      </c>
+      <c r="B46" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C46" s="16"/>
-      <c r="D46" s="16"/>
-      <c r="E46" s="16"/>
-      <c r="F46" s="16"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
     </row>
     <row r="47" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42">
+      <c r="A47" s="18">
         <v>2</v>
       </c>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="C47" s="19"/>
+      <c r="D47" s="19"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="14"/>
+      <c r="B48" s="20"/>
       <c r="C48" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
-      <c r="G48" s="33" t="s">
+      <c r="E48" s="25"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H48" s="14"/>
-      <c r="I48" s="14"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
     </row>
     <row r="49" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="42">
-        <v>1</v>
-      </c>
-      <c r="B49" s="31" t="s">
+      <c r="A49" s="18">
+        <v>1</v>
+      </c>
+      <c r="B49" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C49" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="D49" s="27" t="s">
+      <c r="D49" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27" t="s">
+      <c r="E49" s="19"/>
+      <c r="F49" s="19"/>
+      <c r="G49" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
+      <c r="H49" s="19"/>
+      <c r="I49" s="19"/>
     </row>
     <row r="50" spans="1:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="42">
+      <c r="A50" s="18">
         <v>2</v>
       </c>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C50" s="31"/>
-      <c r="D50" s="27" t="s">
+      <c r="C50" s="15"/>
+      <c r="D50" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27" t="s">
+      <c r="E50" s="19"/>
+      <c r="F50" s="19"/>
+      <c r="G50" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
+      <c r="H50" s="19"/>
+      <c r="I50" s="19"/>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="14" t="s">
+      <c r="A51" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B51" s="14"/>
-      <c r="C51" s="14"/>
-      <c r="D51" s="14"/>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
+      <c r="B51" s="20"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1</v>
       </c>
-      <c r="B52" s="26" t="s">
+      <c r="B52" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C52" s="26"/>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
+      <c r="C52" s="21"/>
+      <c r="D52" s="21"/>
+      <c r="E52" s="21"/>
+      <c r="F52" s="21"/>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>2</v>
       </c>
-      <c r="B53" s="26" t="s">
+      <c r="B53" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C53" s="26"/>
-      <c r="D53" s="26"/>
-      <c r="E53" s="26"/>
-      <c r="F53" s="26"/>
+      <c r="C53" s="21"/>
+      <c r="D53" s="21"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="A51:F51"/>
-    <mergeCell ref="B52:F52"/>
-    <mergeCell ref="B53:F53"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="B46:F46"/>
-    <mergeCell ref="B47:F47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="B41:E41"/>
-    <mergeCell ref="B42:E42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A45:F45"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="B36:F36"/>
-    <mergeCell ref="B37:F37"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="B31:F31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A3:A5"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="D16:F16"/>
@@ -1493,19 +1512,53 @@
     <mergeCell ref="A13:F13"/>
     <mergeCell ref="B14:F14"/>
     <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="A3:A5"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="D18:F18"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="B36:F36"/>
+    <mergeCell ref="B37:F37"/>
+    <mergeCell ref="B41:E41"/>
+    <mergeCell ref="B42:E42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A45:F45"/>
+    <mergeCell ref="B46:F46"/>
+    <mergeCell ref="B47:F47"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="A51:F51"/>
+    <mergeCell ref="B52:F52"/>
+    <mergeCell ref="B53:F53"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="G50:I50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:H50"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
@@ -1523,245 +1576,245 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
         <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="33" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="35" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>1</v>
-      </c>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="10">
+        <v>1</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="42">
-        <v>1</v>
-      </c>
-      <c r="B13" s="16" t="s">
+      <c r="A13" s="18">
+        <v>1</v>
+      </c>
+      <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="42">
+      <c r="A14" s="18">
         <v>2</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:8" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="42">
+      <c r="A15" s="18">
         <v>3</v>
       </c>
-      <c r="B15" s="34" t="s">
+      <c r="B15" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="41"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="37"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
     </row>
     <row r="17" spans="1:6" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="42">
-        <v>1</v>
-      </c>
-      <c r="B17" s="32" t="s">
+      <c r="A17" s="18">
+        <v>1</v>
+      </c>
+      <c r="B17" s="16" t="s">
         <v>53</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="34" t="s">
+      <c r="D17" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="E17" s="40"/>
-      <c r="F17" s="41"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="37"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>2</v>
       </c>
-      <c r="B20" s="26" t="s">
+      <c r="B20" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="21"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="14"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
       <c r="F24" s="4" t="s">
         <v>1</v>
       </c>
@@ -1770,144 +1823,144 @@
       <c r="A25" s="6">
         <v>1</v>
       </c>
-      <c r="B25" s="12" t="s">
+      <c r="B25" s="27" t="s">
         <v>80</v>
       </c>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="20" t="s">
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="20"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="20"/>
     </row>
     <row r="27" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
+      <c r="A27" s="28" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="20"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="42">
-        <v>1</v>
-      </c>
-      <c r="B29" s="16" t="s">
+      <c r="A29" s="18">
+        <v>1</v>
+      </c>
+      <c r="B29" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C29" s="16"/>
-      <c r="D29" s="16"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
     </row>
     <row r="30" spans="1:6" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="42">
+      <c r="A30" s="18">
         <v>2</v>
       </c>
-      <c r="B30" s="27" t="s">
+      <c r="B30" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C30" s="27"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="19"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="20"/>
       <c r="C31" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="13" t="s">
+      <c r="D31" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A32" s="42">
-        <v>1</v>
-      </c>
-      <c r="B32" s="32" t="s">
+      <c r="A32" s="18">
+        <v>1</v>
+      </c>
+      <c r="B32" s="16" t="s">
         <v>58</v>
       </c>
       <c r="C32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B33" s="14"/>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1</v>
       </c>
-      <c r="B34" s="26" t="s">
+      <c r="B34" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="26"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>2</v>
       </c>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="26"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B39" s="14" t="s">
+      <c r="B39" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
       <c r="F39" s="4" t="s">
         <v>1</v>
       </c>
@@ -1916,152 +1969,168 @@
       <c r="A40" s="6">
         <v>1</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="27" t="s">
         <v>79</v>
       </c>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="20" t="s">
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="12" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="14" t="s">
+      <c r="A41" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B41" s="14"/>
-      <c r="C41" s="14"/>
-      <c r="D41" s="14"/>
-      <c r="E41" s="14"/>
-      <c r="F41" s="14"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
     </row>
     <row r="42" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+      <c r="A42" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="B42" s="22"/>
-      <c r="C42" s="22"/>
-      <c r="D42" s="22"/>
-      <c r="E42" s="22"/>
-      <c r="F42" s="22"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="28"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="14" t="s">
+      <c r="A43" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="14"/>
-      <c r="C43" s="14"/>
-      <c r="D43" s="14"/>
-      <c r="E43" s="14"/>
-      <c r="F43" s="14"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C44" s="16"/>
-      <c r="D44" s="16"/>
-      <c r="E44" s="16"/>
-      <c r="F44" s="16"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>2</v>
       </c>
-      <c r="B45" s="27" t="s">
+      <c r="B45" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="27"/>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
+      <c r="C45" s="19"/>
+      <c r="D45" s="19"/>
+      <c r="E45" s="19"/>
+      <c r="F45" s="19"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="14" t="s">
+      <c r="A46" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B46" s="14"/>
+      <c r="B46" s="20"/>
       <c r="C46" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D46" s="13" t="s">
+      <c r="D46" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="13"/>
-      <c r="F46" s="13"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="42">
-        <v>1</v>
-      </c>
-      <c r="B47" s="32" t="s">
+      <c r="A47" s="18">
+        <v>1</v>
+      </c>
+      <c r="B47" s="16" t="s">
         <v>62</v>
       </c>
       <c r="C47" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="D47" s="27" t="s">
+      <c r="D47" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
+      <c r="E47" s="19"/>
+      <c r="F47" s="19"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="14" t="s">
+      <c r="A48" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B48" s="14"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="14"/>
-      <c r="E48" s="14"/>
-      <c r="F48" s="14"/>
+      <c r="B48" s="20"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1</v>
       </c>
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="26"/>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
+      <c r="C49" s="21"/>
+      <c r="D49" s="21"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="21"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>2</v>
       </c>
-      <c r="B50" s="26" t="s">
+      <c r="B50" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C50" s="26"/>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
+      <c r="C50" s="21"/>
+      <c r="D50" s="21"/>
+      <c r="E50" s="21"/>
+      <c r="F50" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="B40:E40"/>
-    <mergeCell ref="A41:F41"/>
-    <mergeCell ref="A42:F42"/>
-    <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A48:F48"/>
-    <mergeCell ref="B49:F49"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="H3:H4"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B39:E39"/>
+    <mergeCell ref="D2:H2"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B13:F13"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B20:F20"/>
+    <mergeCell ref="B24:E24"/>
     <mergeCell ref="B50:F50"/>
     <mergeCell ref="B44:F44"/>
     <mergeCell ref="B45:F45"/>
     <mergeCell ref="A46:B46"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B49:F49"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B39:E39"/>
     <mergeCell ref="B35:F35"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="D31:F31"/>
@@ -2073,34 +2142,18 @@
     <mergeCell ref="A27:F27"/>
     <mergeCell ref="A28:F28"/>
     <mergeCell ref="B29:F29"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B20:F20"/>
-    <mergeCell ref="B24:E24"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="B13:F13"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="D2:H2"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="B40:E40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A48:F48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A2:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
@@ -2118,71 +2171,71 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:8" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="36" t="s">
+      <c r="D3" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="36" t="s">
+      <c r="F3" s="38" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="37" t="s">
+      <c r="G3" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="H3" s="37" t="s">
+      <c r="H3" s="33" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="27"/>
-      <c r="C4" s="35" t="s">
+      <c r="A4" s="19"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
       <c r="F8" s="4" t="s">
         <v>1</v>
       </c>
@@ -2191,83 +2244,83 @@
       <c r="A9" s="6">
         <v>1</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="27"/>
       <c r="F9" s="8" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="22" t="s">
+      <c r="A11" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
     </row>
     <row r="14" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>2</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="27"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="13" t="s">
+      <c r="D15" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
     </row>
     <row r="16" spans="1:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
@@ -2279,76 +2332,64 @@
       <c r="C16" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="23" t="s">
+      <c r="D16" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="E16" s="24"/>
-      <c r="F16" s="25"/>
+      <c r="E16" s="41"/>
+      <c r="F16" s="42"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
-      <c r="B18" s="26" t="s">
+      <c r="B18" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2</v>
       </c>
-      <c r="B19" s="26" t="s">
+      <c r="B19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="21"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="21"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B14:F14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A11:F11"/>
-    <mergeCell ref="A12:F12"/>
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="D2:H2"/>
     <mergeCell ref="A3:A4"/>
@@ -2358,6 +2399,18 @@
     <mergeCell ref="F3:F4"/>
     <mergeCell ref="G3:G4"/>
     <mergeCell ref="H3:H4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A11:F11"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B14:F14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="A17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
